--- a/biology/Zoologie/Acanthisittidae/Acanthisittidae.xlsx
+++ b/biology/Zoologie/Acanthisittidae/Acanthisittidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Acanthisittidae (ou acanthisittidés en français) sont une famille d'oiseaux de petite taille (de 7 à 10 cm) nommés xéniques. Toutes les espèces de cette famille sont endémiques de la Nouvelle-Zélande.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les xéniques ont le bec fin et pointu. Ils ont de courtes ailes arrondies et une très courte queue. Leur plumage est plutôt terne.
 </t>
@@ -542,7 +556,9 @@
           <t>Habitats et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils ne vivent qu'en Nouvelle-Zélande. On les rencontre dans les forêts (spécialement de hêtres) et les broussailles, depuis le niveau de la mer jusqu'à la limite des arbres. Une espèce vit en zones alpine et subalpine, y compris dans les éboulis.
 </t>
@@ -575,15 +591,54 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Liste des genres
-Selon la classification du Congrès ornithologique international (version 5.2, 2015) :
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon la classification du Congrès ornithologique international (version 5.2, 2015) :
 genre Acanthisitta Lafresnaye, 1842
 genre Xenicus G. R. Gray, 1855
 Auxquels s'ajoutent deux genres fossiles ou subfossiles :
 †Pachyplichas
-†Dendroscansor
-Liste des espèces
-D'après la classification de référence (version 5.2, 2015) du Congrès ornithologique international (ordre phylogénique) :
+†Dendroscansor</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Acanthisittidae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acanthisittidae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>D'après la classification de référence (version 5.2, 2015) du Congrès ornithologique international (ordre phylogénique) :
 Acanthisitta chloris – Xénique grimpeur
 †Xenicus longipes – Xénique des buissons
 Xenicus gilviventris – Xénique des rochers
